--- a/Project_V/Assets/ExcelFiles/settings.xlsx
+++ b/Project_V/Assets/ExcelFiles/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0D3D0-9AC2-457F-8C38-C212734D30E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B95540-3CF5-4014-A6FA-5AB53CC7F94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2670" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,16 +682,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1121,7 @@
       <c r="C2" s="3">
         <v>300</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>600</v>
       </c>
       <c r="E2" s="3">
@@ -1147,32 +1141,28 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/settings.xlsx
+++ b/Project_V/Assets/ExcelFiles/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B95540-3CF5-4014-A6FA-5AB53CC7F94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7BE89-AA5B-4C0D-8CEB-2E4FC4A44288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="11175" yWindow="2220" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/settings.xlsx
+++ b/Project_V/Assets/ExcelFiles/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7BE89-AA5B-4C0D-8CEB-2E4FC4A44288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B8D0D-BA0B-4D4C-BDB6-8E1509677EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="2220" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="10770" yWindow="1800" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/settings.xlsx
+++ b/Project_V/Assets/ExcelFiles/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B8D0D-BA0B-4D4C-BDB6-8E1509677EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3F7B7-5F8A-4641-859C-1455A603096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="1800" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="7200" yWindow="2880" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
